--- a/data/trans_orig/P29_R2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29_R2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>157579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140377</v>
+        <v>138738</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180316</v>
+        <v>179092</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.273457492066394</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2436049203313377</v>
+        <v>0.2407613805292577</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3129146692877086</v>
+        <v>0.3107905155837928</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -762,19 +762,19 @@
         <v>20951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15331</v>
+        <v>15001</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29237</v>
+        <v>29056</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02557216024907715</v>
+        <v>0.02557216024907714</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01871259121184729</v>
+        <v>0.01830965713081763</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03568580822971412</v>
+        <v>0.03546519656001339</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>243</v>
@@ -783,19 +783,19 @@
         <v>178530</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>156101</v>
+        <v>158259</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>199976</v>
+        <v>201984</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1279294804800094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1118572265230013</v>
+        <v>0.1134038512339585</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1432971220870353</v>
+        <v>0.1447354820942956</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>418669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>395932</v>
+        <v>397156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435871</v>
+        <v>437510</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.726542507933606</v>
+        <v>0.7265425079336062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6870853307122909</v>
+        <v>0.689209484416207</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.756395079668662</v>
+        <v>0.7592386194707422</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1385</v>
@@ -833,19 +833,19 @@
         <v>798338</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>790052</v>
+        <v>790233</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>803958</v>
+        <v>804288</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.974427839750923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9643141917702861</v>
+        <v>0.9645348034399869</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9812874087881528</v>
+        <v>0.9816903428691824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1869</v>
@@ -854,19 +854,19 @@
         <v>1217007</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1195561</v>
+        <v>1193553</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1239436</v>
+        <v>1237278</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8720705195199905</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8567028779129646</v>
+        <v>0.8552645179057045</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8881427734769987</v>
+        <v>0.8865961487660413</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>328403</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>295718</v>
+        <v>297383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>365924</v>
+        <v>366248</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1474990818802067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1328188496718542</v>
+        <v>0.1335667030163858</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1643513026211217</v>
+        <v>0.1644968310874051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -979,19 +979,19 @@
         <v>76477</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62604</v>
+        <v>62763</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92737</v>
+        <v>91395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03527909242146261</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02887931978751412</v>
+        <v>0.02895258624215672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04277993117541485</v>
+        <v>0.04216079062416456</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>454</v>
@@ -1000,19 +1000,19 @@
         <v>404880</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>367725</v>
+        <v>370816</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>443756</v>
+        <v>447076</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09213856201032708</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08368317072322794</v>
+        <v>0.08438669932367489</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1009856225032059</v>
+        <v>0.1017410702154667</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1898070</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1860549</v>
+        <v>1860225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1930755</v>
+        <v>1929090</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8525009181197932</v>
+        <v>0.8525009181197934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8356486973788779</v>
+        <v>0.8355031689125948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8671811503281458</v>
+        <v>0.8664332969836143</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2805</v>
@@ -1050,19 +1050,19 @@
         <v>2091301</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2075041</v>
+        <v>2076383</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2105174</v>
+        <v>2105015</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9647209075785373</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9572200688245851</v>
+        <v>0.9578392093758362</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.971120680212486</v>
+        <v>0.9710474137578433</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4450</v>
@@ -1071,19 +1071,19 @@
         <v>3989371</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3950495</v>
+        <v>3947175</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4026526</v>
+        <v>4023435</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9078614379896728</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.899014377496794</v>
+        <v>0.8982589297845334</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9163168292767719</v>
+        <v>0.9156133006763251</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>87473</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70511</v>
+        <v>72074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103587</v>
+        <v>107201</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1229259951753946</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09908983565696854</v>
+        <v>0.1012863885911675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1455716525753956</v>
+        <v>0.1506500282366808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1196,19 +1196,19 @@
         <v>21389</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14537</v>
+        <v>14910</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30638</v>
+        <v>30107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02918498620802467</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01983539366525759</v>
+        <v>0.02034492515331852</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04180563984879447</v>
+        <v>0.04108101077736918</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>138</v>
@@ -1217,19 +1217,19 @@
         <v>108861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90381</v>
+        <v>91450</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126495</v>
+        <v>127115</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07536495624264111</v>
+        <v>0.07536495624264113</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06257097952557464</v>
+        <v>0.06331099897763352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.087572574656305</v>
+        <v>0.08800222309338766</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>624114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>608000</v>
+        <v>604386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>641076</v>
+        <v>639513</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8770740048246053</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8544283474246046</v>
+        <v>0.8493499717633192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9009101643430315</v>
+        <v>0.8987136114088325</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>969</v>
@@ -1267,19 +1267,19 @@
         <v>711479</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702230</v>
+        <v>702761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>718331</v>
+        <v>717958</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9708150137919753</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9581943601512055</v>
+        <v>0.958918989222631</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9801646063347427</v>
+        <v>0.9796550748466814</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1545</v>
@@ -1288,19 +1288,19 @@
         <v>1335594</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1317960</v>
+        <v>1317340</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1354074</v>
+        <v>1353005</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9246350437573588</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9124274253436951</v>
+        <v>0.9119977769066122</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9374290204744254</v>
+        <v>0.9366890010223657</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>573455</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>530134</v>
+        <v>530193</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>621146</v>
+        <v>614420</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.163177099614858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1508502347374774</v>
+        <v>0.1508671025581282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1767476482256854</v>
+        <v>0.1748339683498532</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>182</v>
@@ -1413,19 +1413,19 @@
         <v>118817</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101505</v>
+        <v>103247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>138902</v>
+        <v>137535</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03194060470326344</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02728664269476276</v>
+        <v>0.02775500919443876</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03733992012039074</v>
+        <v>0.03697249739475236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>835</v>
@@ -1434,19 +1434,19 @@
         <v>692272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>643144</v>
+        <v>645053</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>739038</v>
+        <v>739769</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09569371320027412</v>
+        <v>0.0956937132002741</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08890269176483634</v>
+        <v>0.08916657604332887</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1021582874966215</v>
+        <v>0.1022593353628737</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2940853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2893162</v>
+        <v>2899888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2984174</v>
+        <v>2984115</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8368229003851422</v>
+        <v>0.8368229003851421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8232523517743147</v>
+        <v>0.8251660316501469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8491497652625226</v>
+        <v>0.8491328974418719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5159</v>
@@ -1484,19 +1484,19 @@
         <v>3601118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3581033</v>
+        <v>3582400</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3618430</v>
+        <v>3616688</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9680593952967365</v>
+        <v>0.9680593952967366</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9626600798796093</v>
+        <v>0.9630275026052478</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9727133573052372</v>
+        <v>0.9722449908055614</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7864</v>
@@ -1505,19 +1505,19 @@
         <v>6541971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6495205</v>
+        <v>6494474</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6591099</v>
+        <v>6589190</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9043062867997259</v>
+        <v>0.9043062867997258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8978417125033783</v>
+        <v>0.8977406646371263</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9110973082351637</v>
+        <v>0.9108334239566711</v>
       </c>
     </row>
     <row r="15">
